--- a/testFile/case/tokenCase.xlsx
+++ b/testFile/case/tokenCase.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,9 +482,6 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
       <c r="G2">
         <v>7200</v>
       </c>
@@ -502,9 +499,6 @@
       <c r="F3">
         <v>41002</v>
       </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -524,9 +518,6 @@
       </c>
       <c r="F4">
         <v>40125</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
